--- a/Brain/Outsystems/Associate Reactive Developer/Brain/Screen event.xlsx
+++ b/Brain/Outsystems/Associate Reactive Developer/Brain/Screen event.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Study\Brain\Outsystems\Associate Reactive Developer\Brain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E0DD35-9C2B-423C-8E56-77380B489646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617F24C8-5580-4C57-8808-B5C6D7974424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -384,6 +385,109 @@
         <a:xfrm>
           <a:off x="0" y="54483000"/>
           <a:ext cx="16076190" cy="8819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>181773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A8CEF1-A5F9-4BEA-BD08-AFD086A6762A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="24742" t="18213" r="26804" b="3803"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8410575" cy="7611273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>86226</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684FE22E-EE26-4EFB-BB59-1DA31A8935F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="22794" t="10026" r="30637" b="11293"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="0"/>
+          <a:ext cx="8011026" cy="7610475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -660,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="AA191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+    <sheetView topLeftCell="A313" workbookViewId="0">
       <selection activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
@@ -675,4 +779,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2796C39B-D805-4BCE-B1C0-532AE991C124}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD19" sqref="AD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>